--- a/Chapter 3 - Assembly/[ignore]/MemoryLayout.xlsx
+++ b/Chapter 3 - Assembly/[ignore]/MemoryLayout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projects\Z0FCourse_ReverseEngineering\0x200-Assembly\[ignore]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Z0FCourse_ReverseEngineering\Chapter 3 - Assembly\[ignore]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753E3504-3646-4273-91BF-4A2465522CDC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CAE1E0-36A0-4142-951E-6FEAAADA01DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C1D0A83E-69E0-441A-B2F4-D47610F61E46}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>0x00000000</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Kernel Space</t>
   </si>
   <si>
-    <t>0xFFFFFFFF</t>
-  </si>
-  <si>
     <t>Stack Frame Layout</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Memory Layout</t>
   </si>
   <si>
-    <t>0x00400000</t>
-  </si>
-  <si>
     <t>Program Image</t>
   </si>
   <si>
@@ -94,13 +88,34 @@
   </si>
   <si>
     <t>RBP + 16</t>
+  </si>
+  <si>
+    <t>stackVar1 = 1</t>
+  </si>
+  <si>
+    <t>Stack/Heap Relation</t>
+  </si>
+  <si>
+    <t>0x7FFFFFFF</t>
+  </si>
+  <si>
+    <t>Free Space</t>
+  </si>
+  <si>
+    <t>stackVar2 = 2</t>
+  </si>
+  <si>
+    <t>heapVar2 = 12</t>
+  </si>
+  <si>
+    <t>heapVar1 = 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +158,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,12 +192,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF339933"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -182,24 +204,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF71DAFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -229,43 +263,320 @@
       <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
       <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
+      <right style="thick">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF3F3F3F"/>
+      </left>
       <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thick">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -273,78 +584,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -355,6 +710,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF71DAFF"/>
       <color rgb="FFFF3333"/>
       <color rgb="FF339933"/>
       <color rgb="FF006600"/>
@@ -375,15 +731,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1036916</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>35902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1036916</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>141176</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -399,7 +755,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1798916" y="1369402"/>
+          <a:off x="4936213" y="1803980"/>
           <a:ext cx="0" cy="295774"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -428,15 +784,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1034717</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>47122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1034717</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>150394</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -452,8 +808,114 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1796717" y="999622"/>
-          <a:ext cx="0" cy="293772"/>
+          <a:off x="4934014" y="1404435"/>
+          <a:ext cx="0" cy="305678"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1105474</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1105474</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A94331-C4E1-4846-AE0C-783884358C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5004771" y="4202403"/>
+          <a:ext cx="0" cy="464506"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1110917</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>79780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1110917</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99287DF1-6D24-4400-9F6E-9EC713CDB1ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010214" y="4818468"/>
+          <a:ext cx="0" cy="465526"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -779,196 +1241,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A727B8-801F-48B4-A3D5-8FB72A53DDED}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="D5:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="5" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="4:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="4:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="4:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="4:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="32"/>
+      <c r="F14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="4:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="32"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="4:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="32"/>
+      <c r="F16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="32"/>
+      <c r="F17" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="5:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="16" t="s">
+      <c r="F22" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="16" t="s">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="24"/>
+      <c r="F24" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="24"/>
+      <c r="F25" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="23" t="s">
+      <c r="F26" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="30"/>
+      <c r="F27" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="5:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="11"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="23" t="s">
+    </row>
+    <row r="33" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="13"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="15"/>
+      <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="15"/>
+      <c r="F35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="18"/>
-    </row>
+    </row>
+    <row r="37" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="5:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
+  <mergeCells count="14">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
